--- a/data/trans_orig/P39A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E07F43-EE7D-4CF2-B509-570C6A7797B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FFC611-54F9-4054-ACD1-CF0B7B4D1968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B34342B9-9646-44A9-B22B-DDC50285AFC8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DACB37A-C317-4815-BFE4-EB0C0C2D4C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,28 +106,28 @@
     <t>12,8%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>Entre seis meses y un año</t>
@@ -136,28 +136,28 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>3 a 5 meses</t>
@@ -166,1450 +166,1450 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,81%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2015 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>28,03%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2015 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE2253C-C9E5-4C38-A0A1-90E85CD43236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2BC3A-31B4-4238-A7C8-9985B1DFEF2E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,7 +2797,7 @@
         <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2812,13 @@
         <v>91417</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -2827,13 +2827,13 @@
         <v>81571</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -2842,13 +2842,13 @@
         <v>172988</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2863,13 @@
         <v>108414</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -2878,13 +2878,13 @@
         <v>109244</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>190</v>
@@ -2893,13 +2893,13 @@
         <v>217658</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2914,13 @@
         <v>51380</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2929,13 +2929,13 @@
         <v>41071</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -2944,13 +2944,13 @@
         <v>92450</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2965,13 @@
         <v>102392</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2980,13 +2980,13 @@
         <v>122099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -2995,13 +2995,13 @@
         <v>224491</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>247391</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -3084,13 +3084,13 @@
         <v>247586</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>461</v>
@@ -3099,13 +3099,13 @@
         <v>494976</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3120,13 @@
         <v>588433</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>465</v>
@@ -3135,13 +3135,13 @@
         <v>502109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1032</v>
@@ -3150,13 +3150,13 @@
         <v>1090542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3171,13 @@
         <v>680568</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>603</v>
@@ -3186,13 +3186,13 @@
         <v>657479</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1236</v>
@@ -3201,13 +3201,13 @@
         <v>1338047</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3222,13 @@
         <v>336805</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -3237,13 +3237,13 @@
         <v>420864</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>697</v>
@@ -3252,13 +3252,13 @@
         <v>757669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3273,13 @@
         <v>922576</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>1160</v>
@@ -3288,13 +3288,13 @@
         <v>1250985</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>2008</v>
@@ -3303,13 +3303,13 @@
         <v>2173561</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3365,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11140E7-E1A2-466F-B50D-0D1851B8A50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3061BB7-58EE-4640-9706-8342EAC6F77D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3508,13 @@
         <v>67168</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -3523,13 +3523,13 @@
         <v>50524</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -3538,13 +3538,13 @@
         <v>117692</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3559,13 @@
         <v>122322</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3577,10 +3577,10 @@
         <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>251</v>
@@ -3589,13 +3589,13 @@
         <v>267007</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3610,13 @@
         <v>184144</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
@@ -3625,13 +3625,13 @@
         <v>233637</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M6" s="7">
         <v>400</v>
@@ -3745,10 +3745,10 @@
         <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3816,13 @@
         <v>201845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -3831,13 +3831,13 @@
         <v>183255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>372</v>
@@ -3846,13 +3846,13 @@
         <v>385100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3867,13 @@
         <v>459680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>452</v>
@@ -3882,13 +3882,13 @@
         <v>467013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
@@ -3897,13 +3897,13 @@
         <v>926692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3918,13 @@
         <v>448947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>434</v>
@@ -3933,13 +3933,13 @@
         <v>459011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>859</v>
@@ -3948,13 +3948,13 @@
         <v>907958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3969,13 @@
         <v>211201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -3984,13 +3984,13 @@
         <v>207882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3999,13 +3999,13 @@
         <v>419082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>282625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -4035,13 +4035,13 @@
         <v>362206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>604</v>
@@ -4050,13 +4050,13 @@
         <v>644831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4124,13 @@
         <v>59564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4142,10 +4142,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4154,13 +4154,13 @@
         <v>106594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4175,13 @@
         <v>123509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4190,13 +4190,13 @@
         <v>140413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -4205,13 +4205,13 @@
         <v>263922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4226,13 @@
         <v>115707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -4241,13 +4241,13 @@
         <v>124670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>228</v>
@@ -4256,13 +4256,13 @@
         <v>240376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4277,13 @@
         <v>47364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -4292,13 +4292,13 @@
         <v>64166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4307,13 +4307,13 @@
         <v>111530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4328,13 @@
         <v>97374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -4343,13 +4343,13 @@
         <v>91542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -4358,13 +4358,13 @@
         <v>188916</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4432,13 @@
         <v>328577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -4447,13 +4447,13 @@
         <v>280809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -4462,13 +4462,13 @@
         <v>609386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4483,13 @@
         <v>705510</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>721</v>
@@ -4498,13 +4498,13 @@
         <v>752111</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>1394</v>
@@ -4513,13 +4513,13 @@
         <v>1457621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4534,13 @@
         <v>748798</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>766</v>
@@ -4549,13 +4549,13 @@
         <v>817318</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>1487</v>
@@ -4564,13 +4564,13 @@
         <v>1566116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4585,13 @@
         <v>362319</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>419</v>
@@ -4600,13 +4600,13 @@
         <v>456809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>765</v>
@@ -4615,13 +4615,13 @@
         <v>819128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4636,13 @@
         <v>560148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>693</v>
@@ -4651,13 +4651,13 @@
         <v>764604</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>1228</v>
@@ -4666,13 +4666,13 @@
         <v>1324751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4728,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E2BCB0-4916-4CE0-AB61-8ABCFB9D667E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED90748F-B384-4F0A-9004-BA50AB5FE09C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4871,13 +4871,13 @@
         <v>33417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -4886,13 +4886,13 @@
         <v>33056</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -4901,13 +4901,13 @@
         <v>66472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4952,13 @@
         <v>202487</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4973,13 @@
         <v>114153</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -4988,7 +4988,7 @@
         <v>194215</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>383</v>
@@ -5030,7 +5030,7 @@
         <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>322</v>
@@ -5039,13 +5039,13 @@
         <v>182599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -5054,13 +5054,13 @@
         <v>290586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5075,13 @@
         <v>140270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5090,13 +5090,13 @@
         <v>251957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
@@ -5105,13 +5105,13 @@
         <v>392227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5179,13 @@
         <v>156043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
@@ -5194,13 +5194,13 @@
         <v>178205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>370</v>
@@ -5209,13 +5209,13 @@
         <v>334249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5230,13 @@
         <v>441365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -5245,13 +5245,13 @@
         <v>568894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>1034</v>
@@ -5260,13 +5260,13 @@
         <v>1010260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5281,13 @@
         <v>493561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>737</v>
@@ -5296,13 +5296,13 @@
         <v>513913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M12" s="7">
         <v>1238</v>
@@ -5311,13 +5311,13 @@
         <v>1007474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5332,13 @@
         <v>277012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H13" s="7">
         <v>412</v>
@@ -5347,13 +5347,13 @@
         <v>268521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -5362,13 +5362,13 @@
         <v>545533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5383,13 @@
         <v>300747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>612</v>
@@ -5398,13 +5398,13 @@
         <v>396397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
@@ -5413,13 +5413,13 @@
         <v>697144</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5487,13 @@
         <v>38693</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5502,13 +5502,13 @@
         <v>49124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5517,13 +5517,13 @@
         <v>87816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5538,13 @@
         <v>157604</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
@@ -5553,13 +5553,13 @@
         <v>138162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>456</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -5568,13 +5568,13 @@
         <v>295766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5589,13 @@
         <v>179141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>276</v>
@@ -5604,13 +5604,13 @@
         <v>185512</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>463</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
@@ -5619,13 +5619,13 @@
         <v>364652</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>465</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>257</v>
+        <v>466</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5640,13 @@
         <v>93563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5655,13 +5655,13 @@
         <v>98562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -5670,13 +5670,13 @@
         <v>192124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5691,13 @@
         <v>118923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -5706,13 +5706,13 @@
         <v>164907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>374</v>
@@ -5721,13 +5721,13 @@
         <v>283829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5795,13 @@
         <v>228153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -5810,13 +5810,13 @@
         <v>260385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -5825,13 +5825,13 @@
         <v>488537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5846,13 @@
         <v>688258</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>1004</v>
@@ -5861,13 +5861,13 @@
         <v>820255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>1666</v>
@@ -5876,10 +5876,10 @@
         <v>1508513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>497</v>
@@ -5981,10 +5981,10 @@
         <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5999,13 @@
         <v>559939</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
@@ -6014,13 +6014,13 @@
         <v>813261</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>1958</v>
@@ -6029,7 +6029,7 @@
         <v>1373200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>522</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FFC611-54F9-4054-ACD1-CF0B7B4D1968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB969871-507D-4596-B879-9EFD82170839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DACB37A-C317-4815-BFE4-EB0C0C2D4C0A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{744233B3-7628-4511-948A-6D9D9D3658B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -76,1459 +76,1453 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>24,82%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2015 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
   </si>
   <si>
     <t>30,49%</t>
@@ -2021,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2BC3A-31B4-4238-A7C8-9985B1DFEF2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098D032B-1612-4730-8E12-92A98A7E3920}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,7 +2585,7 @@
         <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2600,13 @@
         <v>178698</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -2621,13 +2615,13 @@
         <v>187770</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -2636,13 +2630,13 @@
         <v>366468</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2651,13 @@
         <v>393179</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>428</v>
@@ -2672,13 +2666,13 @@
         <v>461606</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>790</v>
@@ -2687,13 +2681,13 @@
         <v>854784</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,7 +2743,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2761,13 +2755,13 @@
         <v>43384</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -2776,13 +2770,13 @@
         <v>39277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -2791,13 +2785,13 @@
         <v>82660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2806,13 @@
         <v>91417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -2827,13 +2821,13 @@
         <v>81571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -2842,13 +2836,13 @@
         <v>172988</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2857,13 @@
         <v>108414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -2878,13 +2872,13 @@
         <v>109244</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>190</v>
@@ -2893,13 +2887,13 @@
         <v>217658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2908,13 @@
         <v>51380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2929,13 +2923,13 @@
         <v>41071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -2944,13 +2938,13 @@
         <v>92450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2959,13 @@
         <v>102392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2980,13 +2974,13 @@
         <v>122099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -2995,13 +2989,13 @@
         <v>224491</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3063,13 @@
         <v>247391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -3084,13 +3078,13 @@
         <v>247586</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>461</v>
@@ -3099,13 +3093,13 @@
         <v>494976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3114,13 @@
         <v>588433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>465</v>
@@ -3135,13 +3129,13 @@
         <v>502109</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1032</v>
@@ -3150,13 +3144,13 @@
         <v>1090542</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3165,13 @@
         <v>680568</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>603</v>
@@ -3186,13 +3180,13 @@
         <v>657479</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1236</v>
@@ -3201,13 +3195,13 @@
         <v>1338047</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3216,13 @@
         <v>336805</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -3237,13 +3231,13 @@
         <v>420864</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>697</v>
@@ -3252,13 +3246,13 @@
         <v>757669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3267,13 @@
         <v>922576</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1160</v>
@@ -3288,13 +3282,13 @@
         <v>1250985</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>2008</v>
@@ -3303,13 +3297,13 @@
         <v>2173561</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3359,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3061BB7-58EE-4640-9706-8342EAC6F77D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3F884-0433-4737-BDC8-76433A05ADDF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3502,13 @@
         <v>67168</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -3523,13 +3517,13 @@
         <v>50524</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -3538,13 +3532,13 @@
         <v>117692</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3553,13 @@
         <v>122322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3577,10 +3571,10 @@
         <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>251</v>
@@ -3589,13 +3583,13 @@
         <v>267007</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3604,13 @@
         <v>184144</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
@@ -3625,13 +3619,13 @@
         <v>233637</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>400</v>
@@ -3640,13 +3634,13 @@
         <v>417781</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3655,13 @@
         <v>103754</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -3676,13 +3670,13 @@
         <v>184761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>277</v>
@@ -3691,13 +3685,13 @@
         <v>288515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3706,13 @@
         <v>180148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>268</v>
@@ -3727,13 +3721,13 @@
         <v>310856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -3742,13 +3736,13 @@
         <v>491004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3810,13 @@
         <v>201845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -3831,13 +3825,13 @@
         <v>183255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>372</v>
@@ -3846,13 +3840,13 @@
         <v>385100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3861,13 @@
         <v>459680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>452</v>
@@ -3882,13 +3876,13 @@
         <v>467013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
@@ -3897,13 +3891,13 @@
         <v>926692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3912,13 @@
         <v>448947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>434</v>
@@ -3933,13 +3927,13 @@
         <v>459011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>859</v>
@@ -3948,13 +3942,13 @@
         <v>907958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3963,13 @@
         <v>211201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -3984,13 +3978,13 @@
         <v>207882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3999,13 +3993,13 @@
         <v>419082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4014,13 @@
         <v>282625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -4035,13 +4029,13 @@
         <v>362206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>604</v>
@@ -4050,13 +4044,13 @@
         <v>644831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,7 +4106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4124,13 +4118,13 @@
         <v>59564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4142,10 +4136,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4154,13 +4148,13 @@
         <v>106594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4169,13 @@
         <v>123509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4190,13 +4184,13 @@
         <v>140413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -4205,13 +4199,13 @@
         <v>263922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4220,13 @@
         <v>115707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -4241,13 +4235,13 @@
         <v>124670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>228</v>
@@ -4256,13 +4250,13 @@
         <v>240376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4271,13 @@
         <v>47364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -4292,13 +4286,13 @@
         <v>64166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4307,13 +4301,13 @@
         <v>111530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4322,13 @@
         <v>97374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -4343,13 +4337,13 @@
         <v>91542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -4358,13 +4352,13 @@
         <v>188916</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4426,13 @@
         <v>328577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -4447,13 +4441,13 @@
         <v>280809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -4462,13 +4456,13 @@
         <v>609386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4477,13 @@
         <v>705510</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>721</v>
@@ -4498,13 +4492,13 @@
         <v>752111</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>1394</v>
@@ -4513,13 +4507,13 @@
         <v>1457621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4528,13 @@
         <v>748798</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>766</v>
@@ -4549,13 +4543,13 @@
         <v>817318</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>1487</v>
@@ -4564,13 +4558,13 @@
         <v>1566116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4579,13 @@
         <v>362319</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>419</v>
@@ -4600,13 +4594,13 @@
         <v>456809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>765</v>
@@ -4615,13 +4609,13 @@
         <v>819128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4630,13 @@
         <v>560148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>693</v>
@@ -4651,13 +4645,13 @@
         <v>764604</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>1228</v>
@@ -4666,13 +4660,13 @@
         <v>1324751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4722,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED90748F-B384-4F0A-9004-BA50AB5FE09C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2F7C72-F22D-490B-B72F-9D1F98CD5BBE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4871,13 +4865,13 @@
         <v>33417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -4886,13 +4880,13 @@
         <v>33056</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -4901,13 +4895,13 @@
         <v>66472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4916,13 @@
         <v>89288</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -4937,13 +4931,13 @@
         <v>113199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>287</v>
@@ -4952,13 +4946,13 @@
         <v>202487</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4967,13 @@
         <v>114153</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -4988,13 +4982,13 @@
         <v>194215</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -5003,13 +4997,13 @@
         <v>308369</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5018,13 @@
         <v>107986</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>322</v>
@@ -5039,13 +5033,13 @@
         <v>182599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -5054,13 +5048,13 @@
         <v>290586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>388</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5069,13 @@
         <v>140270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5090,13 +5084,13 @@
         <v>251957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
@@ -5105,13 +5099,13 @@
         <v>392227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5173,13 @@
         <v>156043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
@@ -5194,13 +5188,13 @@
         <v>178205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>370</v>
@@ -5209,13 +5203,13 @@
         <v>334249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5224,13 @@
         <v>441365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -5245,13 +5239,13 @@
         <v>568894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
         <v>1034</v>
@@ -5260,13 +5254,13 @@
         <v>1010260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5275,13 @@
         <v>493561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>737</v>
@@ -5296,13 +5290,13 @@
         <v>513913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>1238</v>
@@ -5311,13 +5305,13 @@
         <v>1007474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5326,13 @@
         <v>277012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>412</v>
@@ -5347,13 +5341,13 @@
         <v>268521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -5362,13 +5356,13 @@
         <v>545533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5377,13 @@
         <v>300747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>612</v>
@@ -5398,13 +5392,13 @@
         <v>396397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>117</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
@@ -5413,13 +5407,13 @@
         <v>697144</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5487,13 +5481,13 @@
         <v>38693</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5502,13 +5496,13 @@
         <v>49124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5517,13 +5511,13 @@
         <v>87816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5532,13 @@
         <v>157604</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
@@ -5553,13 +5547,13 @@
         <v>138162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -5568,13 +5562,13 @@
         <v>295766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5583,13 @@
         <v>179141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>276</v>
@@ -5604,13 +5598,13 @@
         <v>185512</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
@@ -5619,13 +5613,13 @@
         <v>364652</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5634,13 @@
         <v>93563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5655,13 +5649,13 @@
         <v>98562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -5670,13 +5664,13 @@
         <v>192124</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5685,13 @@
         <v>118923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -5706,13 +5700,13 @@
         <v>164907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>374</v>
@@ -5721,13 +5715,13 @@
         <v>283829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5789,13 @@
         <v>228153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -5810,13 +5804,13 @@
         <v>260385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -5825,13 +5819,13 @@
         <v>488537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5840,13 @@
         <v>688258</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>1004</v>
@@ -5861,13 +5855,13 @@
         <v>820255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>1666</v>
@@ -5876,13 +5870,13 @@
         <v>1508513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>494</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5891,13 @@
         <v>786855</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>1354</v>
@@ -5912,13 +5906,13 @@
         <v>893640</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>2181</v>
@@ -5927,13 +5921,13 @@
         <v>1680496</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5942,13 @@
         <v>478561</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>887</v>
@@ -5963,13 +5957,13 @@
         <v>549682</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>1432</v>
@@ -5978,13 +5972,13 @@
         <v>1028243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5993,13 @@
         <v>559939</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
@@ -6014,13 +6008,13 @@
         <v>813261</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>1958</v>
@@ -6029,13 +6023,13 @@
         <v>1373200</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6085,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB969871-507D-4596-B879-9EFD82170839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E898A9-C58E-49E1-B113-1E71A18A6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{744233B3-7628-4511-948A-6D9D9D3658B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7385AA66-3007-4D53-8487-2B08176CE418}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="524">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -76,1534 +76,1540 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>28,49%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098D032B-1612-4730-8E12-92A98A7E3920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D19999-147B-4EC6-89A2-514EA5820B28}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2585,7 +2591,7 @@
         <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2606,13 @@
         <v>178698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -2615,13 +2621,13 @@
         <v>187770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -2630,13 +2636,13 @@
         <v>366468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2657,13 @@
         <v>393179</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>428</v>
@@ -2666,13 +2672,13 @@
         <v>461606</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>790</v>
@@ -2681,13 +2687,13 @@
         <v>854784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +2749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2755,13 +2761,13 @@
         <v>43384</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -2770,13 +2776,13 @@
         <v>39277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -2785,13 +2791,13 @@
         <v>82660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2812,13 @@
         <v>91417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -2821,13 +2827,13 @@
         <v>81571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -2836,13 +2842,13 @@
         <v>172988</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2863,13 @@
         <v>108414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -2872,13 +2878,13 @@
         <v>109244</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>190</v>
@@ -2887,13 +2893,13 @@
         <v>217658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2914,13 @@
         <v>51380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2923,13 +2929,13 @@
         <v>41071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -2938,13 +2944,13 @@
         <v>92450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2965,13 @@
         <v>102392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2974,13 +2980,13 @@
         <v>122099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -2989,13 +2995,13 @@
         <v>224491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3069,13 @@
         <v>247391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -3078,13 +3084,13 @@
         <v>247586</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>461</v>
@@ -3093,13 +3099,13 @@
         <v>494976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3120,13 @@
         <v>588433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>465</v>
@@ -3129,13 +3135,13 @@
         <v>502109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1032</v>
@@ -3144,13 +3150,13 @@
         <v>1090542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3171,13 @@
         <v>680568</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>603</v>
@@ -3180,13 +3186,13 @@
         <v>657479</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1236</v>
@@ -3195,13 +3201,13 @@
         <v>1338047</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3222,13 @@
         <v>336805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -3231,13 +3237,13 @@
         <v>420864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>697</v>
@@ -3246,13 +3252,13 @@
         <v>757669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3273,13 @@
         <v>922576</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>1160</v>
@@ -3282,13 +3288,13 @@
         <v>1250985</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>2008</v>
@@ -3297,13 +3303,13 @@
         <v>2173561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3365,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3F884-0433-4737-BDC8-76433A05ADDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2662BBCE-D7C3-4FE2-A677-549C689508A5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3508,13 @@
         <v>67168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -3517,13 +3523,13 @@
         <v>50524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -3532,13 +3538,13 @@
         <v>117692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3559,13 @@
         <v>122322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3571,10 +3577,10 @@
         <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>251</v>
@@ -3583,13 +3589,13 @@
         <v>267007</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3610,13 @@
         <v>184144</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
@@ -3619,13 +3625,13 @@
         <v>233637</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="M6" s="7">
         <v>400</v>
@@ -3634,13 +3640,13 @@
         <v>417781</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3661,13 @@
         <v>103754</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -3670,13 +3676,13 @@
         <v>184761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>277</v>
@@ -3685,13 +3691,13 @@
         <v>288515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3712,13 @@
         <v>180148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>268</v>
@@ -3721,13 +3727,13 @@
         <v>310856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -3736,13 +3742,13 @@
         <v>491004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3816,13 @@
         <v>201845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -3825,13 +3831,13 @@
         <v>183255</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>372</v>
@@ -3840,13 +3846,13 @@
         <v>385100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3867,13 @@
         <v>459680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>452</v>
@@ -3876,13 +3882,13 @@
         <v>467013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
@@ -3891,13 +3897,13 @@
         <v>926692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3918,13 @@
         <v>448947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>434</v>
@@ -3927,13 +3933,13 @@
         <v>459011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>859</v>
@@ -3942,13 +3948,13 @@
         <v>907958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3969,13 @@
         <v>211201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -3978,13 +3984,13 @@
         <v>207882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3993,13 +3999,13 @@
         <v>419082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4020,13 @@
         <v>282625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -4029,13 +4035,13 @@
         <v>362206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>604</v>
@@ -4044,13 +4050,13 @@
         <v>644831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,7 +4112,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4118,13 +4124,13 @@
         <v>59564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4136,10 +4142,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4148,13 +4154,13 @@
         <v>106594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4175,13 @@
         <v>123509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4184,13 +4190,13 @@
         <v>140413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -4199,13 +4205,13 @@
         <v>263922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4226,13 @@
         <v>115707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -4235,13 +4241,13 @@
         <v>124670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>228</v>
@@ -4250,13 +4256,13 @@
         <v>240376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4277,13 @@
         <v>47364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -4286,13 +4292,13 @@
         <v>64166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4301,13 +4307,13 @@
         <v>111530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4328,13 @@
         <v>97374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -4337,13 +4343,13 @@
         <v>91542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -4352,13 +4358,13 @@
         <v>188916</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4432,13 @@
         <v>328577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -4441,13 +4447,13 @@
         <v>280809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -4456,13 +4462,13 @@
         <v>609386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4483,13 @@
         <v>705510</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>721</v>
@@ -4492,13 +4498,13 @@
         <v>752111</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>1394</v>
@@ -4507,13 +4513,13 @@
         <v>1457621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4534,13 @@
         <v>748798</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>766</v>
@@ -4543,13 +4549,13 @@
         <v>817318</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>1487</v>
@@ -4558,13 +4564,13 @@
         <v>1566116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4585,13 @@
         <v>362319</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>419</v>
@@ -4594,13 +4600,13 @@
         <v>456809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>765</v>
@@ -4609,13 +4615,13 @@
         <v>819128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4636,13 @@
         <v>560148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>693</v>
@@ -4645,13 +4651,13 @@
         <v>764604</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1228</v>
@@ -4660,13 +4666,13 @@
         <v>1324751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4728,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2F7C72-F22D-490B-B72F-9D1F98CD5BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4367393-AE64-45B6-AFCB-7133DC931BCD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4865,13 +4871,13 @@
         <v>33417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -4880,13 +4886,13 @@
         <v>33056</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -4895,13 +4901,13 @@
         <v>66472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4922,13 @@
         <v>89288</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -4931,13 +4937,13 @@
         <v>113199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>287</v>
@@ -4946,13 +4952,13 @@
         <v>202487</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4973,13 @@
         <v>114153</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -4982,13 +4988,13 @@
         <v>194215</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -4997,13 +5003,13 @@
         <v>308369</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5024,13 @@
         <v>107986</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>322</v>
@@ -5033,13 +5039,13 @@
         <v>182599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>387</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -5048,13 +5054,13 @@
         <v>290586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5075,13 @@
         <v>140270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5084,13 +5090,13 @@
         <v>251957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
@@ -5099,13 +5105,13 @@
         <v>392227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5179,13 @@
         <v>156043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
@@ -5188,13 +5194,13 @@
         <v>178205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7">
         <v>370</v>
@@ -5203,13 +5209,13 @@
         <v>334249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5230,13 @@
         <v>441365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -5239,13 +5245,13 @@
         <v>568894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>1034</v>
@@ -5254,13 +5260,13 @@
         <v>1010260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5281,13 @@
         <v>493561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>737</v>
@@ -5290,13 +5296,13 @@
         <v>513913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>1238</v>
@@ -5305,13 +5311,13 @@
         <v>1007474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>100</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5332,13 @@
         <v>277012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>412</v>
@@ -5341,13 +5347,13 @@
         <v>268521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -5356,13 +5362,13 @@
         <v>545533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5383,13 @@
         <v>300747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>612</v>
@@ -5392,13 +5398,13 @@
         <v>396397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
@@ -5407,13 +5413,13 @@
         <v>697144</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5481,13 +5487,13 @@
         <v>38693</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5496,13 +5502,13 @@
         <v>49124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>444</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5511,13 +5517,13 @@
         <v>87816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5538,13 @@
         <v>157604</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
@@ -5547,13 +5553,13 @@
         <v>138162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -5562,13 +5568,13 @@
         <v>295766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5589,13 @@
         <v>179141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7">
         <v>276</v>
@@ -5598,13 +5604,13 @@
         <v>185512</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>463</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
@@ -5613,13 +5619,13 @@
         <v>364652</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5640,13 @@
         <v>93563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5649,13 +5655,13 @@
         <v>98562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -5664,13 +5670,13 @@
         <v>192124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5691,13 @@
         <v>118923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -5700,13 +5706,13 @@
         <v>164907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>374</v>
@@ -5718,10 +5724,10 @@
         <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5795,13 @@
         <v>228153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -5804,13 +5810,13 @@
         <v>260385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -5819,13 +5825,13 @@
         <v>488537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5846,13 @@
         <v>688258</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>1004</v>
@@ -5855,13 +5861,13 @@
         <v>820255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>1666</v>
@@ -5870,13 +5876,13 @@
         <v>1508513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5897,13 @@
         <v>786855</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>1354</v>
@@ -5906,13 +5912,13 @@
         <v>893640</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>2181</v>
@@ -5921,13 +5927,13 @@
         <v>1680496</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5948,13 @@
         <v>478561</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>887</v>
@@ -5957,13 +5963,13 @@
         <v>549682</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>1432</v>
@@ -5972,13 +5978,13 @@
         <v>1028243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5999,13 @@
         <v>559939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
@@ -6008,13 +6014,13 @@
         <v>813261</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>1958</v>
@@ -6023,13 +6029,13 @@
         <v>1373200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6091,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E898A9-C58E-49E1-B113-1E71A18A6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A0EC46-A495-421B-A241-FB8603E21EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7385AA66-3007-4D53-8487-2B08176CE418}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3E5D64F6-F746-4333-9DB1-CE43B1269F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="521">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -1126,490 +1126,481 @@
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D19999-147B-4EC6-89A2-514EA5820B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79174CA6-7B7C-478D-98E4-4E6AC2C58F7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3384,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2662BBCE-D7C3-4FE2-A677-549C689508A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E895B9-AB1E-4265-A881-6944FAAC9C8F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4684,7 +4675,7 @@
         <v>2587</v>
       </c>
       <c r="D27" s="7">
-        <v>2705352</v>
+        <v>2705351</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -4747,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4367393-AE64-45B6-AFCB-7133DC931BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB989F16-A410-42CC-81AD-5DC4B0E3ADFB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4868,7 +4859,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>33417</v>
+        <v>32039</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>362</v>
@@ -4883,7 +4874,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>33056</v>
+        <v>30656</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>365</v>
@@ -4898,7 +4889,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>66472</v>
+        <v>62695</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>368</v>
@@ -4919,7 +4910,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>89288</v>
+        <v>85285</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>371</v>
@@ -4934,7 +4925,7 @@
         <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>113199</v>
+        <v>103740</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>374</v>
@@ -4949,16 +4940,16 @@
         <v>287</v>
       </c>
       <c r="N5" s="7">
-        <v>202487</v>
+        <v>189025</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,25 +4961,25 @@
         <v>147</v>
       </c>
       <c r="D6" s="7">
-        <v>114153</v>
+        <v>107923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
       </c>
       <c r="I6" s="7">
-        <v>194215</v>
+        <v>174830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>383</v>
@@ -5000,16 +4991,16 @@
         <v>488</v>
       </c>
       <c r="N6" s="7">
-        <v>308369</v>
+        <v>282753</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,46 +5012,46 @@
         <v>140</v>
       </c>
       <c r="D7" s="7">
-        <v>107986</v>
+        <v>101167</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>322</v>
       </c>
       <c r="I7" s="7">
-        <v>182599</v>
+        <v>162669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
       </c>
       <c r="N7" s="7">
-        <v>290586</v>
+        <v>263836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,46 +5063,46 @@
         <v>198</v>
       </c>
       <c r="D8" s="7">
-        <v>140270</v>
+        <v>136346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
       </c>
       <c r="I8" s="7">
-        <v>251957</v>
+        <v>230455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
       </c>
       <c r="N8" s="7">
-        <v>392227</v>
+        <v>366801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5114,7 @@
         <v>627</v>
       </c>
       <c r="D9" s="7">
-        <v>485114</v>
+        <v>462760</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5138,7 +5129,7 @@
         <v>1344</v>
       </c>
       <c r="I9" s="7">
-        <v>775027</v>
+        <v>702349</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5153,7 +5144,7 @@
         <v>1971</v>
       </c>
       <c r="N9" s="7">
-        <v>1260142</v>
+        <v>1165109</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5176,46 +5167,46 @@
         <v>143</v>
       </c>
       <c r="D10" s="7">
-        <v>156043</v>
+        <v>154858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
       </c>
       <c r="I10" s="7">
-        <v>178205</v>
+        <v>165245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>370</v>
       </c>
       <c r="N10" s="7">
-        <v>334249</v>
+        <v>320103</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,46 +5218,46 @@
         <v>410</v>
       </c>
       <c r="D11" s="7">
-        <v>441365</v>
+        <v>437064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
       </c>
       <c r="I11" s="7">
-        <v>568894</v>
+        <v>631328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>1034</v>
       </c>
       <c r="N11" s="7">
-        <v>1010260</v>
+        <v>1068392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,46 +5269,46 @@
         <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>493561</v>
+        <v>475803</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>737</v>
       </c>
       <c r="I12" s="7">
-        <v>513913</v>
+        <v>495012</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>1238</v>
       </c>
       <c r="N12" s="7">
-        <v>1007474</v>
+        <v>970815</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>100</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,10 +5320,10 @@
         <v>304</v>
       </c>
       <c r="D13" s="7">
-        <v>277012</v>
+        <v>263791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>427</v>
@@ -5344,7 +5335,7 @@
         <v>412</v>
       </c>
       <c r="I13" s="7">
-        <v>268521</v>
+        <v>246066</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>429</v>
@@ -5353,22 +5344,22 @@
         <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
       </c>
       <c r="N13" s="7">
-        <v>545533</v>
+        <v>509857</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,46 +5371,46 @@
         <v>329</v>
       </c>
       <c r="D14" s="7">
-        <v>300747</v>
+        <v>294334</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>612</v>
       </c>
       <c r="I14" s="7">
-        <v>396397</v>
+        <v>369563</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
       </c>
       <c r="N14" s="7">
-        <v>697144</v>
+        <v>663896</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,7 +5422,7 @@
         <v>1687</v>
       </c>
       <c r="D15" s="7">
-        <v>1668729</v>
+        <v>1625850</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5446,7 +5437,7 @@
         <v>2612</v>
       </c>
       <c r="I15" s="7">
-        <v>1925931</v>
+        <v>1907214</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5461,7 +5452,7 @@
         <v>4299</v>
       </c>
       <c r="N15" s="7">
-        <v>3594660</v>
+        <v>3533063</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5484,25 +5475,25 @@
         <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>38693</v>
+        <v>37892</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>49124</v>
+        <v>44938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>447</v>
@@ -5514,16 +5505,16 @@
         <v>98</v>
       </c>
       <c r="N16" s="7">
-        <v>87816</v>
+        <v>82830</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,46 +5526,46 @@
         <v>148</v>
       </c>
       <c r="D17" s="7">
-        <v>157604</v>
+        <v>151607</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
       </c>
       <c r="I17" s="7">
-        <v>138162</v>
+        <v>128926</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
       </c>
       <c r="N17" s="7">
-        <v>295766</v>
+        <v>280532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,46 +5577,46 @@
         <v>179</v>
       </c>
       <c r="D18" s="7">
-        <v>179141</v>
+        <v>171295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>276</v>
       </c>
       <c r="I18" s="7">
-        <v>185512</v>
+        <v>172278</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
       </c>
       <c r="N18" s="7">
-        <v>364652</v>
+        <v>343573</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,46 +5628,46 @@
         <v>101</v>
       </c>
       <c r="D19" s="7">
-        <v>93563</v>
+        <v>88387</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>98562</v>
+        <v>90627</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
       </c>
       <c r="N19" s="7">
-        <v>192124</v>
+        <v>179014</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,37 +5679,37 @@
         <v>140</v>
       </c>
       <c r="D20" s="7">
-        <v>118923</v>
+        <v>115713</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
       </c>
       <c r="I20" s="7">
-        <v>164907</v>
+        <v>154917</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>374</v>
       </c>
       <c r="N20" s="7">
-        <v>283829</v>
+        <v>270630</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>479</v>
@@ -5739,7 +5730,7 @@
         <v>604</v>
       </c>
       <c r="D21" s="7">
-        <v>587923</v>
+        <v>564893</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5754,7 +5745,7 @@
         <v>922</v>
       </c>
       <c r="I21" s="7">
-        <v>636265</v>
+        <v>591685</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5769,7 +5760,7 @@
         <v>1526</v>
       </c>
       <c r="N21" s="7">
-        <v>1224188</v>
+        <v>1156578</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5792,7 +5783,7 @@
         <v>217</v>
       </c>
       <c r="D22" s="7">
-        <v>228153</v>
+        <v>224789</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>482</v>
@@ -5807,7 +5798,7 @@
         <v>342</v>
       </c>
       <c r="I22" s="7">
-        <v>260385</v>
+        <v>240839</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>485</v>
@@ -5822,16 +5813,16 @@
         <v>559</v>
       </c>
       <c r="N22" s="7">
-        <v>488537</v>
+        <v>465627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,43 +5834,43 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>688258</v>
+        <v>673956</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>1004</v>
       </c>
       <c r="I23" s="7">
-        <v>820255</v>
+        <v>863993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>1666</v>
       </c>
       <c r="N23" s="7">
-        <v>1508513</v>
+        <v>1537949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>497</v>
@@ -5894,7 +5885,7 @@
         <v>827</v>
       </c>
       <c r="D24" s="7">
-        <v>786855</v>
+        <v>755021</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>498</v>
@@ -5909,31 +5900,31 @@
         <v>1354</v>
       </c>
       <c r="I24" s="7">
-        <v>893640</v>
+        <v>842118</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>2181</v>
       </c>
       <c r="N24" s="7">
-        <v>1680496</v>
+        <v>1597140</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,46 +5936,46 @@
         <v>545</v>
       </c>
       <c r="D25" s="7">
-        <v>478561</v>
+        <v>453345</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>887</v>
       </c>
       <c r="I25" s="7">
-        <v>549682</v>
+        <v>499362</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>1432</v>
       </c>
       <c r="N25" s="7">
-        <v>1028243</v>
+        <v>952707</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,46 +5987,46 @@
         <v>667</v>
       </c>
       <c r="D26" s="7">
-        <v>559939</v>
+        <v>546392</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
       </c>
       <c r="I26" s="7">
-        <v>813261</v>
+        <v>754935</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>1958</v>
       </c>
       <c r="N26" s="7">
-        <v>1373200</v>
+        <v>1301327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6038,7 @@
         <v>2918</v>
       </c>
       <c r="D27" s="7">
-        <v>2741766</v>
+        <v>2653503</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6062,7 +6053,7 @@
         <v>4878</v>
       </c>
       <c r="I27" s="7">
-        <v>3337224</v>
+        <v>3201247</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6077,7 +6068,7 @@
         <v>7796</v>
       </c>
       <c r="N27" s="7">
-        <v>6078990</v>
+        <v>5854751</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
